--- a/TT.xlsx
+++ b/TT.xlsx
@@ -28,7 +28,7 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>30/01/2023 16:12:24.204</t>
+    <t>30/01/2023 16:10:26.100</t>
   </si>
   <si>
     <t>T1_AUV</t>
@@ -37,10 +37,10 @@
     <t>В110кВТ1/АУВ/Включение выключателя</t>
   </si>
   <si>
-    <t>30/01/2023 16:10:26.204</t>
+    <t>30/01/2023 16:12:24.204</t>
   </si>
   <si>
-    <t>30/01/2023 16:10:26.100</t>
+    <t>30/01/2023 16:10:26.204</t>
   </si>
 </sst>
 </file>
@@ -446,12 +446,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -465,7 +465,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -479,7 +479,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -551,7 +551,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
